--- a/07. Project Office/Project Plan.xlsx
+++ b/07. Project Office/Project Plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>PROJECT X - AUTOMATED ATTENDANCE SYSTEM</t>
   </si>
@@ -104,7 +104,7 @@
     <t>Stakeholder list</t>
   </si>
   <si>
-    <t>Quennie Bar</t>
+    <t>Quennie Barbarona</t>
   </si>
   <si>
     <t>Conduct feasibility study</t>
@@ -128,7 +128,7 @@
     <t>Approved project charter</t>
   </si>
   <si>
-    <t>Hello world!</t>
+    <t>ABB!</t>
   </si>
   <si>
     <t>Requirement Analysis</t>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>Final project report</t>
-  </si>
-  <si>
-    <t>Quennie Barbarona</t>
   </si>
 </sst>
 </file>
@@ -1504,8 +1501,8 @@
   </sheetPr>
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1"/>
@@ -1742,7 +1739,7 @@
       <c r="AB5" s="26"/>
       <c r="AC5" s="26"/>
     </row>
-    <row r="6" ht="13.2" spans="1:29">
+    <row r="6" spans="1:29">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="15">
@@ -1794,7 +1791,7 @@
       <c r="AB6" s="26"/>
       <c r="AC6" s="26"/>
     </row>
-    <row r="7" ht="13.2" spans="1:29">
+    <row r="7" spans="1:29">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15">
@@ -1898,7 +1895,7 @@
       <c r="AB8" s="26"/>
       <c r="AC8" s="26"/>
     </row>
-    <row r="9" ht="13.2" spans="1:29">
+    <row r="9" spans="1:29">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="15">
@@ -2058,7 +2055,7 @@
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
     </row>
-    <row r="12" ht="13.2" spans="1:29">
+    <row r="12" spans="1:29">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="15">
@@ -2070,7 +2067,9 @@
       <c r="E12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="17">
         <v>2</v>
       </c>
@@ -2103,7 +2102,7 @@
       <c r="AB12" s="26"/>
       <c r="AC12" s="26"/>
     </row>
-    <row r="13" ht="13.2" spans="1:29">
+    <row r="13" spans="1:29">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15">
@@ -2115,7 +2114,9 @@
       <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="G13" s="17">
         <v>2</v>
       </c>
@@ -2148,7 +2149,7 @@
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
     </row>
-    <row r="14" ht="13.2" spans="1:29">
+    <row r="14" spans="1:29">
       <c r="A14" s="13">
         <v>3</v>
       </c>
@@ -2164,7 +2165,9 @@
       <c r="E14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="17">
         <v>3</v>
       </c>
@@ -2197,7 +2200,7 @@
       <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>
     </row>
-    <row r="15" ht="13.2" spans="1:29">
+    <row r="15" spans="1:29">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="15">
@@ -2209,7 +2212,9 @@
       <c r="E15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="17">
         <v>2</v>
       </c>
@@ -2242,7 +2247,7 @@
       <c r="AB15" s="26"/>
       <c r="AC15" s="26"/>
     </row>
-    <row r="16" ht="13.2" spans="1:29">
+    <row r="16" spans="1:29">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="15">
@@ -2254,9 +2259,7 @@
       <c r="E16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F16" s="16"/>
       <c r="G16" s="17">
         <v>2</v>
       </c>
@@ -2289,7 +2292,7 @@
       <c r="AB16" s="26"/>
       <c r="AC16" s="26"/>
     </row>
-    <row r="17" ht="13.2" spans="1:29">
+    <row r="17" spans="1:29">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="15">
@@ -2301,9 +2304,7 @@
       <c r="E17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F17" s="16"/>
       <c r="G17" s="17">
         <v>4</v>
       </c>
@@ -2336,7 +2337,7 @@
       <c r="AB17" s="26"/>
       <c r="AC17" s="26"/>
     </row>
-    <row r="18" ht="13.2" spans="1:29">
+    <row r="18" spans="1:29">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -2352,9 +2353,7 @@
       <c r="E18" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="17">
         <v>1</v>
       </c>
@@ -2387,7 +2386,7 @@
       <c r="AB18" s="26"/>
       <c r="AC18" s="26"/>
     </row>
-    <row r="19" ht="13.2" spans="1:29">
+    <row r="19" spans="1:29">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="15">
@@ -2399,9 +2398,7 @@
       <c r="E19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="17">
         <v>3</v>
       </c>
@@ -2434,7 +2431,7 @@
       <c r="AB19" s="26"/>
       <c r="AC19" s="26"/>
     </row>
-    <row r="20" ht="13.2" spans="1:29">
+    <row r="20" spans="1:29">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="15">
@@ -2446,9 +2443,7 @@
       <c r="E20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="F20" s="16"/>
       <c r="G20" s="17">
         <v>5</v>
       </c>
@@ -2481,7 +2476,7 @@
       <c r="AB20" s="26"/>
       <c r="AC20" s="26"/>
     </row>
-    <row r="21" ht="13.2" spans="1:29">
+    <row r="21" spans="1:29">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15">
@@ -2493,9 +2488,7 @@
       <c r="E21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="F21" s="16"/>
       <c r="G21" s="17">
         <v>2</v>
       </c>
@@ -2528,7 +2521,7 @@
       <c r="AB21" s="26"/>
       <c r="AC21" s="26"/>
     </row>
-    <row r="22" ht="13.2" spans="1:29">
+    <row r="22" spans="1:29">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="15">
@@ -2540,9 +2533,7 @@
       <c r="E22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="F22" s="16"/>
       <c r="G22" s="17">
         <v>3</v>
       </c>
@@ -2575,7 +2566,7 @@
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
     </row>
-    <row r="23" ht="13.2" spans="1:29">
+    <row r="23" spans="1:29">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="15">
@@ -2587,9 +2578,7 @@
       <c r="E23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F23" s="16"/>
       <c r="G23" s="17">
         <v>2</v>
       </c>
@@ -2622,7 +2611,7 @@
       <c r="AB23" s="26"/>
       <c r="AC23" s="26"/>
     </row>
-    <row r="24" ht="13.2" spans="1:29">
+    <row r="24" spans="1:29">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="15">
@@ -2634,9 +2623,7 @@
       <c r="E24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F24" s="16"/>
       <c r="G24" s="17">
         <v>1</v>
       </c>
@@ -2669,7 +2656,7 @@
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
     </row>
-    <row r="25" ht="13.2" spans="1:29">
+    <row r="25" spans="1:29">
       <c r="A25" s="13">
         <v>5</v>
       </c>
@@ -2685,9 +2672,7 @@
       <c r="E25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="F25" s="16"/>
       <c r="G25" s="17">
         <v>1</v>
       </c>
@@ -2720,7 +2705,7 @@
       <c r="AB25" s="26"/>
       <c r="AC25" s="26"/>
     </row>
-    <row r="26" ht="13.2" spans="1:29">
+    <row r="26" spans="1:29">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="15">
@@ -2732,9 +2717,7 @@
       <c r="E26" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F26" s="16"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
@@ -2767,7 +2750,7 @@
       <c r="AB26" s="26"/>
       <c r="AC26" s="26"/>
     </row>
-    <row r="27" ht="13.2" spans="1:29">
+    <row r="27" spans="1:29">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="15">
@@ -2779,9 +2762,7 @@
       <c r="E27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="F27" s="16"/>
       <c r="G27" s="17">
         <v>1</v>
       </c>
@@ -2814,7 +2795,7 @@
       <c r="AB27" s="26"/>
       <c r="AC27" s="26"/>
     </row>
-    <row r="28" ht="13.2" spans="1:29">
+    <row r="28" spans="1:29">
       <c r="A28" s="13">
         <v>6</v>
       </c>
@@ -2830,9 +2811,7 @@
       <c r="E28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="17">
         <v>1</v>
       </c>
@@ -2865,7 +2844,7 @@
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
     </row>
-    <row r="29" ht="13.2" spans="1:29">
+    <row r="29" spans="1:29">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15">
@@ -2877,9 +2856,7 @@
       <c r="E29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="F29" s="16"/>
       <c r="G29" s="17">
         <v>2</v>
       </c>
@@ -2912,7 +2889,7 @@
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
     </row>
-    <row r="30" ht="13.2" spans="1:29">
+    <row r="30" spans="1:29">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="15">
@@ -2924,9 +2901,7 @@
       <c r="E30" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="F30" s="16"/>
       <c r="G30" s="17">
         <v>1</v>
       </c>
@@ -2959,7 +2934,7 @@
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
     </row>
-    <row r="31" ht="13.2" spans="1:29">
+    <row r="31" spans="1:29">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="15">
@@ -2971,9 +2946,7 @@
       <c r="E31" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F31" s="16"/>
       <c r="G31" s="17">
         <v>3</v>
       </c>
@@ -3006,7 +2979,7 @@
       <c r="AB31" s="26"/>
       <c r="AC31" s="26"/>
     </row>
-    <row r="32" ht="13.2" spans="1:29">
+    <row r="32" spans="1:29">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="15">
@@ -3018,9 +2991,7 @@
       <c r="E32" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="F32" s="16"/>
       <c r="G32" s="17">
         <v>1</v>
       </c>
@@ -3053,7 +3024,7 @@
       <c r="AB32" s="26"/>
       <c r="AC32" s="26"/>
     </row>
-    <row r="33" ht="13.2" spans="1:29">
+    <row r="33" spans="1:29">
       <c r="A33" s="13">
         <v>7</v>
       </c>
@@ -3069,9 +3040,7 @@
       <c r="E33" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="F33" s="16"/>
       <c r="G33" s="17">
         <v>1</v>
       </c>
@@ -3104,7 +3073,7 @@
       <c r="AB33" s="26"/>
       <c r="AC33" s="26"/>
     </row>
-    <row r="34" ht="13.2" spans="1:29">
+    <row r="34" spans="1:29">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="15">
@@ -3116,9 +3085,7 @@
       <c r="E34" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F34" s="16"/>
       <c r="G34" s="17">
         <v>1</v>
       </c>
@@ -3151,7 +3118,7 @@
       <c r="AB34" s="26"/>
       <c r="AC34" s="26"/>
     </row>
-    <row r="35" ht="13.2" spans="1:29">
+    <row r="35" spans="1:29">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="15">
@@ -3163,9 +3130,7 @@
       <c r="E35" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="F35" s="16"/>
       <c r="G35" s="17">
         <v>1</v>
       </c>
@@ -3198,7 +3163,7 @@
       <c r="AB35" s="26"/>
       <c r="AC35" s="26"/>
     </row>
-    <row r="36" ht="13.2" spans="1:29">
+    <row r="36" spans="1:29">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="15">
@@ -3210,9 +3175,7 @@
       <c r="E36" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="F36" s="16"/>
       <c r="G36" s="17">
         <v>1</v>
       </c>
@@ -3320,7 +3283,7 @@
       <formula1>" Quennie Barbarona,Jhamaica Alfornon, Albert Buhisan,Hello World!"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F35">
-      <formula1>"Albert Buhisan,Jhamaica Alfornon,Quennie Bar, Hello world!"</formula1>
+      <formula1>"Albert Buhisan,Jhamaica Alfornon,Quennie Barbarona, ABB!"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L5:L36">
       <formula1>"Pending,In Progress,Done"</formula1>

--- a/07. Project Office/Project Plan.xlsx
+++ b/07. Project Office/Project Plan.xlsx
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1"/>
@@ -1565,7 +1565,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="str">
         <f ca="1">"Days Left: "&amp;MAX(D2-TODAY(),0)&amp;" Days"</f>
-        <v>Days Left: 22 Days</v>
+        <v>Days Left: 11 Days</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1739,7 +1739,7 @@
       <c r="AB5" s="26"/>
       <c r="AC5" s="26"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" ht="13.2" spans="1:29">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="15">
@@ -1791,7 +1791,7 @@
       <c r="AB6" s="26"/>
       <c r="AC6" s="26"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" ht="13.2" spans="1:29">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15">
@@ -1895,7 +1895,7 @@
       <c r="AB8" s="26"/>
       <c r="AC8" s="26"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" ht="13.2" spans="1:29">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="15">
@@ -2055,7 +2055,7 @@
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" ht="13.2" spans="1:29">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="15">
@@ -2102,7 +2102,7 @@
       <c r="AB12" s="26"/>
       <c r="AC12" s="26"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" ht="13.2" spans="1:29">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15">
@@ -2149,7 +2149,7 @@
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" ht="13.2" spans="1:29">
       <c r="A14" s="13">
         <v>3</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" ht="13.2" spans="1:29">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="15">
@@ -2247,7 +2247,7 @@
       <c r="AB15" s="26"/>
       <c r="AC15" s="26"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" ht="13.2" spans="1:29">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="15">
@@ -2292,7 +2292,7 @@
       <c r="AB16" s="26"/>
       <c r="AC16" s="26"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" ht="13.2" spans="1:29">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="15">
@@ -2337,7 +2337,7 @@
       <c r="AB17" s="26"/>
       <c r="AC17" s="26"/>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" ht="13.2" spans="1:29">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="AB18" s="26"/>
       <c r="AC18" s="26"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" ht="13.2" spans="1:29">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="15">
@@ -2431,7 +2431,7 @@
       <c r="AB19" s="26"/>
       <c r="AC19" s="26"/>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" ht="13.2" spans="1:29">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="15">
@@ -2476,7 +2476,7 @@
       <c r="AB20" s="26"/>
       <c r="AC20" s="26"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" ht="13.2" spans="1:29">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15">
@@ -2521,7 +2521,7 @@
       <c r="AB21" s="26"/>
       <c r="AC21" s="26"/>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" ht="13.2" spans="1:29">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="15">
@@ -2566,7 +2566,7 @@
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" ht="13.2" spans="1:29">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="15">
@@ -2611,7 +2611,7 @@
       <c r="AB23" s="26"/>
       <c r="AC23" s="26"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" ht="13.2" spans="1:29">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="15">
@@ -2656,7 +2656,7 @@
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" ht="13.2" spans="1:29">
       <c r="A25" s="13">
         <v>5</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="AB25" s="26"/>
       <c r="AC25" s="26"/>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" ht="13.2" spans="1:29">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="15">
@@ -2750,7 +2750,7 @@
       <c r="AB26" s="26"/>
       <c r="AC26" s="26"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" ht="13.2" spans="1:29">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="15">
@@ -2795,7 +2795,7 @@
       <c r="AB27" s="26"/>
       <c r="AC27" s="26"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" ht="13.2" spans="1:29">
       <c r="A28" s="13">
         <v>6</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" ht="13.2" spans="1:29">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15">
@@ -2889,7 +2889,7 @@
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" ht="13.2" spans="1:29">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="15">
@@ -2934,7 +2934,7 @@
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" ht="13.2" spans="1:29">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="15">
@@ -2979,7 +2979,7 @@
       <c r="AB31" s="26"/>
       <c r="AC31" s="26"/>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" ht="13.2" spans="1:29">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="15">
@@ -3024,7 +3024,7 @@
       <c r="AB32" s="26"/>
       <c r="AC32" s="26"/>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" ht="13.2" spans="1:29">
       <c r="A33" s="13">
         <v>7</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="AB33" s="26"/>
       <c r="AC33" s="26"/>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" ht="13.2" spans="1:29">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="15">
@@ -3118,7 +3118,7 @@
       <c r="AB34" s="26"/>
       <c r="AC34" s="26"/>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" ht="13.2" spans="1:29">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="15">
@@ -3163,7 +3163,7 @@
       <c r="AB35" s="26"/>
       <c r="AC35" s="26"/>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" ht="13.2" spans="1:29">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="15">
